--- a/excel/32193.xlsx
+++ b/excel/32193.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E3F07BB175D58D1C94142AD41E0A1CC8F67075E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12E8597-9CC7-42CA-AE50-67302C803693}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1485" yWindow="360" windowWidth="14400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1469,11 +1470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="J581" sqref="J581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25211,7 +25212,7 @@
         <v>19</v>
       </c>
       <c r="I579" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J579" t="s">
         <v>21</v>
